--- a/DateBase/orders/Fresh bloom Flowers_2024-12-24.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-12-24.xlsx
@@ -520,6 +520,9 @@
       <c r="C11" t="str">
         <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -581,7 +584,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010135331020660</v>
+        <v>0101353310206628</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2024-12-24.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,9 +524,20 @@
         <v>28</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>12</v>
+      </c>
+      <c r="C12" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,7 +595,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101353310206628</v>
+        <v>010135331020662812</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2024-12-24.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2024-12-24.xlsx
@@ -597,6 +597,9 @@
       <c r="G2" t="str">
         <v>010135331020662812</v>
       </c>
+      <c r="H2" t="str">
+        <v>USD</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
